--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure5.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure5.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>a1cresult</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
     <t>change</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
   </si>
   <si>
     <t>max_glu_serum</t>
   </si>
   <si>
-    <t>a1cresult</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.310663722696233</v>
+        <v>1.302597348535991</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1.298350602000201</v>
+        <v>1.298671798401609</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1.29737750586955</v>
+        <v>1.238992969287299</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1.24021646754144</v>
+        <v>1.20415945787923</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.194865997622756</v>
+        <v>1.202833534051283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.186342028003479</v>
+        <v>1.186389617791412</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1.173176920170826</v>
+        <v>1.169902829479981</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1.169816007770754</v>
+        <v>1.167403896861356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>1.166235609908147</v>
+        <v>1.165192677291825</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.164999457553461</v>
+        <v>1.165082491183713</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1.164091709333044</v>
+        <v>1.164825356302004</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1.161652150493876</v>
+        <v>1.16180479514145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.154700538379251</v>
+        <v>1.155977156279789</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1.145881092548817</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>1.132178700062433</v>
+        <v>1.132025905716883</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.093076948001677</v>
+        <v>1.09072165018329</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.982288412913587</v>
+        <v>0.9832387657661531</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9820966039815646</v>
+        <v>0.9800316704961377</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9763489203642584</v>
+        <v>0.9768825615858038</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -863,16 +863,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9762812094883317</v>
+        <v>0.9744816365163652</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9741857836373106</v>
+        <v>0.9665733569171712</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9688688385003539</v>
+        <v>0.9663920097215367</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9667713907855185</v>
+        <v>0.9656553795499948</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -931,16 +931,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9666033487932396</v>
+        <v>0.9656263020299178</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9664144575236996</v>
+        <v>0.9654589616376539</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9655998975152896</v>
+        <v>0.9653434874282201</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9655176460874391</v>
+        <v>0.9642997171199654</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9652828868819442</v>
+        <v>0.9611362937958194</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9642085477064701</v>
+        <v>0.9347430438120865</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1033,16 +1033,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.9635409575262028</v>
+        <v>0.6612465225335805</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1050,16 +1050,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.9470711969898212</v>
+        <v>0.6612465225335805</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1067,16 +1067,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>0.9347486358846373</v>
+        <v>0.657951694959769</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1084,16 +1084,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.8785953702139588</v>
+        <v>0.6271859320506108</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.8626132582993549</v>
+        <v>0.624913102201322</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.7756717518813396</v>
+        <v>0.6223892841723992</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.768424485864545</v>
+        <v>0.6201736729460422</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.7387888513381874</v>
+        <v>0.5756483387819672</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.7139801884213901</v>
+        <v>0.5726448095652993</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.6963924224279279</v>
+        <v>0.5686979040618454</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6640743728614078</v>
+        <v>0.5578813588540492</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.6624658266841302</v>
+        <v>0.5337701264091668</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5811993136097704</v>
+        <v>0.5318784981949405</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5703729703670445</v>
+        <v>0.5301374837096383</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5133495698395161</v>
+        <v>0.526696767558578</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5118832409926803</v>
+        <v>0.5053822864043174</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E50">
-        <v>0.5104865779928323</v>
+        <v>0.5037130813419435</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -1331,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4909990209489282</v>
+        <v>0.4863350070994631</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.488920977562272</v>
+        <v>0.4789265385950431</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4778650210624109</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4771187236136979</v>
+        <v>0.4770774628600761</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4743086171162924</v>
+        <v>0.4769696007084729</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4709510290835681</v>
+        <v>0.4769696007084729</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4696150345097303</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4629682739038491</v>
+        <v>0.4655300916738573</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.4603974499992501</v>
+        <v>0.4551730667082398</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4415623718317143</v>
+        <v>0.4504426164614508</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4352857500660071</v>
+        <v>0.4418642948562783</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.425871412080371</v>
+        <v>0.4392976851069794</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.4169303212441998</v>
+        <v>0.437624441176623</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,7 +1543,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -1552,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="E64">
-        <v>0.4111457540627025</v>
+        <v>0.4163611943726825</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="E65">
-        <v>0.4040610178208843</v>
+        <v>0.4143877070053741</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1580,13 +1580,13 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.4035582341396724</v>
+        <v>0.4082710583331731</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3942670038352569</v>
+        <v>0.4042260417272217</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.391861397811115</v>
+        <v>0.3973597071195132</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3906854418372261</v>
+        <v>0.3901177318679414</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3888080797435594</v>
+        <v>0.3828207467443882</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3835161996186959</v>
+        <v>0.3786046636072198</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3803378002511423</v>
+        <v>0.3756727857110984</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3754097224930789</v>
+        <v>0.3699438769876614</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E74">
-        <v>0.3749532662959525</v>
+        <v>0.368407789133277</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3666724587390927</v>
+        <v>0.3655416387433481</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3648201190390237</v>
+        <v>0.362773785545106</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3638973737133928</v>
+        <v>0.3606107104942446</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3634636747671182</v>
+        <v>0.3568206200700316</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0.3592232775329927</v>
+        <v>0.3545621041711673</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3524099135148823</v>
+        <v>0.3545621041711673</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3496878867810208</v>
+        <v>0.3545621041711673</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E82">
-        <v>0.3484813916980649</v>
+        <v>0.3323225684293226</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
       <c r="E83">
-        <v>0.3457459036417605</v>
+        <v>0.3308952189585285</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3216337604513384</v>
+        <v>0.329458839835753</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3216337604513384</v>
+        <v>0.3122198830540835</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.3216337604513384</v>
+        <v>0.3058785585143706</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1940,10 +1940,10 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.3198836997962679</v>
+        <v>0.3033636939313115</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>
       </c>
       <c r="E88">
-        <v>0.3015241740970881</v>
+        <v>0.2975510440359234</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E89">
-        <v>0.2996326168243159</v>
+        <v>0.294828184460424</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2975201010299432</v>
+        <v>0.292458437423451</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91">
-        <v>0.2950629260278911</v>
+        <v>0.2883049238394756</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2022,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.2925355042970558</v>
+        <v>0.2883037292002327</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2899167538069007</v>
+        <v>0.2880565711294286</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E94">
-        <v>0.289548578776829</v>
+        <v>0.283069258536149</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2871297426259171</v>
+        <v>0.2827685096407138</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2818559474624566</v>
+        <v>0.2794552318941445</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2780374756005801</v>
+        <v>0.2763101472149446</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2764439343430092</v>
+        <v>0.2749915318174446</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>0.2764439343430092</v>
+        <v>0.2729770272110587</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,7 +2155,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -2164,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2763514185005552</v>
+        <v>0.2721327895390617</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2742685090987114</v>
+        <v>0.2646718194799274</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
         <v>28</v>
       </c>
       <c r="E102">
-        <v>0.2734615788213379</v>
+        <v>0.264363731845504</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.273402485217731</v>
+        <v>0.2631883051828301</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2707114174408731</v>
+        <v>0.2623055426369981</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.263944557086019</v>
+        <v>0.2590384628233228</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2603309104894532</v>
+        <v>0.2571530947257384</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E107">
-        <v>0.2602539363639839</v>
+        <v>0.2569814759966655</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2294,13 +2294,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
       </c>
       <c r="E108">
-        <v>0.2579626187795828</v>
+        <v>0.256372401915904</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2570249256689665</v>
+        <v>0.2553845632354366</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
       <c r="E110">
-        <v>0.2562095660868649</v>
+        <v>0.254727936804943</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2558097482215136</v>
+        <v>0.2537326309317711</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2534107976267301</v>
+        <v>0.2520917525659647</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2531027056360493</v>
+        <v>0.2509423692599094</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
         <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2528639796023951</v>
+        <v>0.250396697579973</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>29</v>
       </c>
       <c r="E115">
-        <v>0.2514728059323568</v>
+        <v>0.2489383024492375</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E116">
-        <v>0.2506820390713043</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2487350148986289</v>
+        <v>0.2472224278583687</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2464,13 +2464,13 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2479803477567594</v>
+        <v>0.2451315260912836</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2467741262324815</v>
+        <v>0.2449354138415117</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2498,13 +2498,13 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2422672620989723</v>
+        <v>0.237593075271324</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E121">
-        <v>0.2400374751462727</v>
+        <v>0.2372588073947183</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2532,13 +2532,13 @@
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E122">
-        <v>0.2398426612989605</v>
+        <v>0.2362000499841169</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E123">
-        <v>0.2363532585139597</v>
+        <v>0.2329798553915627</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2336188079383558</v>
+        <v>0.2318740392747313</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
         <v>27</v>
       </c>
       <c r="E125">
-        <v>0.2335496832484569</v>
+        <v>0.2318694478800841</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2600,13 +2600,13 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
       </c>
       <c r="E126">
-        <v>0.2328525747844993</v>
+        <v>0.2316003296092471</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2617,13 +2617,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>0.231010418227378</v>
+        <v>0.2299248639913007</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2303763114033172</v>
+        <v>0.2296815639652862</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2301206000649479</v>
+        <v>0.2294459109923105</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2294983529107264</v>
+        <v>0.2275009290529008</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2293518107174348</v>
+        <v>0.2268453396892172</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2285420299790275</v>
+        <v>0.226140001511461</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133">
-        <v>0.2284641397419389</v>
+        <v>0.2255662103415044</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,7 +2733,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -2742,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2279774753671255</v>
+        <v>0.2247665537638932</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2277321022192568</v>
+        <v>0.2245389800830979</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.2275396184081841</v>
+        <v>0.2233638021922389</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2272373225449962</v>
+        <v>0.2229842926335344</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2261782612698622</v>
+        <v>0.2227236166114939</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2258272973617373</v>
+        <v>0.2226907276515314</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2245603491878084</v>
+        <v>0.2222200519015465</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2245134777975783</v>
+        <v>0.2220155618472212</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2232255783349609</v>
+        <v>0.2219019767300617</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2231401420800377</v>
+        <v>0.2215687978607583</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2906,13 +2906,13 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2224039589339198</v>
+        <v>0.2214110067014794</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2214536032145898</v>
+        <v>0.2210366184257134</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -2946,7 +2946,7 @@
         <v>29</v>
       </c>
       <c r="E146">
-        <v>0.2212666347569259</v>
+        <v>0.220241294152025</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2207871818954508</v>
+        <v>0.2194686449561513</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E148">
-        <v>0.2195573543398546</v>
+        <v>0.2186768137507506</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E149">
-        <v>0.2172108336526145</v>
+        <v>0.2176832927916668</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>0.2168079980958134</v>
+        <v>0.2167960345839696</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2165434195065836</v>
+        <v>0.2156521996039306</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.2159539279772572</v>
+        <v>0.2150893286398669</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E153">
-        <v>0.2153559963901391</v>
+        <v>0.2138764911871776</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3079,10 +3079,10 @@
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2137017325005273</v>
+        <v>0.2132434563930367</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.2135451546723689</v>
+        <v>0.2131455075826363</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E156">
-        <v>0.2121125442114067</v>
+        <v>0.2107460806737202</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2112200257611771</v>
+        <v>0.2105120891731078</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E158">
-        <v>0.2107181424978073</v>
+        <v>0.2096569673443838</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2103474139487336</v>
+        <v>0.2093811866798478</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.2092286426178727</v>
+        <v>0.2091592224429663</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2090666496004132</v>
+        <v>0.2091009726609873</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2089935353022176</v>
+        <v>0.2087425818240304</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3229,13 +3229,13 @@
         <v>15</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.2064477733286495</v>
+        <v>0.2083837315154699</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.2063792843981919</v>
+        <v>0.2075648075997811</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2057669146136905</v>
+        <v>0.205879596450351</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
       </c>
       <c r="E166">
-        <v>0.2055872588999262</v>
+        <v>0.2057239542118016</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.2055740891020129</v>
+        <v>0.2054532866389704</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.2047103470592347</v>
+        <v>0.2046958785486877</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.2040939838878854</v>
+        <v>0.2029196883011929</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.2025844479162767</v>
+        <v>0.2020725091617648</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,7 +3362,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
         <v>25</v>
@@ -3371,7 +3371,7 @@
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.2023516246279367</v>
+        <v>0.2016830631496016</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.2021502368520831</v>
+        <v>0.2010175256663611</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.2021315142357535</v>
+        <v>0.2001002674825008</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E174">
-        <v>0.2010976040858712</v>
+        <v>0.199377476335967</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1998260118518448</v>
+        <v>0.1982804799421802</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
         <v>28</v>
       </c>
       <c r="E176">
-        <v>0.198613564522899</v>
+        <v>0.1975891524763184</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E177">
-        <v>0.1969321539296687</v>
+        <v>0.1963340823828479</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.1967471036649084</v>
+        <v>0.1960864118867175</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1953048008706287</v>
+        <v>0.1957890020745122</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1938023076816679</v>
+        <v>0.1954750711345277</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E181">
-        <v>0.1925728496564293</v>
+        <v>0.195117124298211</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1921438618442932</v>
+        <v>0.1942874052514838</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>0.1909105761040015</v>
+        <v>0.1937766939407949</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1881465679768373</v>
+        <v>0.1932822376274981</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1870449601110124</v>
+        <v>0.1903826934650722</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E186">
-        <v>0.1858108194062727</v>
+        <v>0.1894320373537758</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E187">
-        <v>0.1857277952958666</v>
+        <v>0.1894320373537758</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E188">
-        <v>0.1818254205469169</v>
+        <v>0.1894320373537758</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,7 +3668,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>20</v>
@@ -3677,7 +3677,7 @@
         <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1813309222681535</v>
+        <v>0.1882065632465504</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="E190">
-        <v>0.1781492853011776</v>
+        <v>0.1876516972260112</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E191">
-        <v>0.1781492853011776</v>
+        <v>0.1875489077013406</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E192">
-        <v>0.1781492853011776</v>
+        <v>0.1867913692527688</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1778738135643973</v>
+        <v>0.1846458943848038</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1770265341554857</v>
+        <v>0.1837026516771283</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.177002085133789</v>
+        <v>0.180214811633535</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1762448322835248</v>
+        <v>0.1795877061833328</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
         <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1755654086675589</v>
+        <v>0.1775768940469176</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
         <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E198">
-        <v>0.1750500567350562</v>
+        <v>0.1765814697315055</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.17438774081985</v>
+        <v>0.1763982465840825</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1737442799919811</v>
+        <v>0.1761349339687973</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.1732930065225958</v>
+        <v>0.1754307946023017</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1726327131019386</v>
+        <v>0.1738571148757257</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1721804499178297</v>
+        <v>0.1735207120733522</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204">
-        <v>0.1715295307631844</v>
+        <v>0.1729008002060985</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1714545034515448</v>
+        <v>0.1722283465627606</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D206" t="s">
         <v>29</v>
       </c>
       <c r="E206">
-        <v>0.1713063364285082</v>
+        <v>0.1721625652606783</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D207" t="s">
         <v>26</v>
       </c>
       <c r="E207">
-        <v>0.1668891081190487</v>
+        <v>0.1717011521893586</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
         <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E208">
-        <v>0.1662828393459892</v>
+        <v>0.170399458891184</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.1601885681267257</v>
+        <v>0.1700029580225888</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E210">
-        <v>0.1601884998233612</v>
+        <v>0.1691458792190374</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
         <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1587212372484262</v>
+        <v>0.1686375018297769</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
         <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E212">
-        <v>0.1554853166852142</v>
+        <v>0.1685986340848007</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1554756729076975</v>
+        <v>0.167832180932115</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
         <v>25</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1551828676077503</v>
+        <v>0.166129315229944</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.152520134603691</v>
+        <v>0.164840253020218</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E216">
-        <v>0.1521765913957621</v>
+        <v>0.1636113719114584</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1513549648724381</v>
+        <v>0.1633926864395881</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1505455993750031</v>
+        <v>0.1619517097377391</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E219">
-        <v>0.1502928837204351</v>
+        <v>0.1601884998233612</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E220">
-        <v>0.150260043378146</v>
+        <v>0.1597659687632211</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1473589250355161</v>
+        <v>0.1597236004569641</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1464636420347766</v>
+        <v>0.1566565234779214</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1459463554707131</v>
+        <v>0.1559689040222816</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E224">
-        <v>0.1458854927506462</v>
+        <v>0.1554756729076975</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1458519798932988</v>
+        <v>0.1549228246558642</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D226" t="s">
         <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1454604286740029</v>
+        <v>0.1548398291358896</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E227">
-        <v>0.1453410647237386</v>
+        <v>0.1533811965420196</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228">
-        <v>0.1444248456676474</v>
+        <v>0.1529807586852923</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E229">
-        <v>0.1440026038119573</v>
+        <v>0.1521765913957621</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1432195142124467</v>
+        <v>0.150705945971159</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1432114232081627</v>
+        <v>0.1498328140423288</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E232">
-        <v>0.1429200220874172</v>
+        <v>0.1497402133530231</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1426587759812812</v>
+        <v>0.1492431335682289</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1420497022975071</v>
+        <v>0.1489073908758843</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
         <v>28</v>
       </c>
       <c r="E235">
-        <v>0.1406780969302303</v>
+        <v>0.1486782576255153</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1398066027797384</v>
+        <v>0.1486370830747831</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1397834085611753</v>
+        <v>0.1477081882251966</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.139700298737288</v>
+        <v>0.1475571038734542</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.1388851766329907</v>
+        <v>0.1471130194955637</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
         <v>26</v>
       </c>
       <c r="E240">
-        <v>0.1381115210216775</v>
+        <v>0.146448274355831</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1380413065521534</v>
+        <v>0.1460754375164859</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D242" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E242">
-        <v>0.1362306177664311</v>
+        <v>0.1442739678370857</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.13599298433857</v>
+        <v>0.143263534784501</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1357818447735976</v>
+        <v>0.1430497174781222</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1356089764993738</v>
+        <v>0.1428667140370531</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1351704996947862</v>
+        <v>0.1427960272231789</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1346713220937311</v>
+        <v>0.1421655097876132</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1345418023119318</v>
+        <v>0.142124273310044</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1344232699007101</v>
+        <v>0.1417339919034057</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1341988735382406</v>
+        <v>0.141593140357887</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
         <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1341424436460396</v>
+        <v>0.1410713456447276</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1330707009737365</v>
+        <v>0.1401718451024326</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1325751710602081</v>
+        <v>0.1396045990935238</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1324060157786325</v>
+        <v>0.1391734917799075</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1316570282208562</v>
+        <v>0.1381507001094839</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1315951966273206</v>
+        <v>0.1381203353386934</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E257">
-        <v>0.1314494464065612</v>
+        <v>0.1373792058241874</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
       </c>
       <c r="E258">
-        <v>0.130519368427446</v>
+        <v>0.1371976499233905</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
         <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1299381553830775</v>
+        <v>0.1371447890108684</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,13 +4878,13 @@
         <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1297974506554588</v>
+        <v>0.1355015351395885</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4895,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1288591589479097</v>
+        <v>0.1354947545686676</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1283984385910158</v>
+        <v>0.1350548131788791</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1270814373660039</v>
+        <v>0.134848964061379</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1269067797357751</v>
+        <v>0.1338783493516389</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1265652038590998</v>
+        <v>0.1328523116258629</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.1262730271866871</v>
+        <v>0.1319628453089115</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1262570052434561</v>
+        <v>0.1317971758159347</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1256602498474618</v>
+        <v>0.1312182513187934</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,7 +5028,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C269" t="s">
         <v>24</v>
@@ -5037,7 +5037,7 @@
         <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1252790395044951</v>
+        <v>0.1301806404696581</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D270" t="s">
         <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1251949591615616</v>
+        <v>0.1300537442589869</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1251854944131826</v>
+        <v>0.1286568911842048</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C272" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1251749592767405</v>
+        <v>0.1280587422805284</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1251536708040439</v>
+        <v>0.1279596091774383</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.124820513459805</v>
+        <v>0.1273942771194891</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.124698545827975</v>
+        <v>0.1273654909630406</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
         <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1244572004150032</v>
+        <v>0.1269267025728068</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
         <v>26</v>
       </c>
       <c r="E277">
-        <v>0.1243060635782742</v>
+        <v>0.1254902027187608</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E278">
-        <v>0.1237931051632568</v>
+        <v>0.1240897099702731</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1237028195867922</v>
+        <v>0.12302505998717</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1236111684555607</v>
+        <v>0.1228021223201121</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1234608315715242</v>
+        <v>0.1221906227404956</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1231844488933885</v>
+        <v>0.1219829074197422</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C283" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1225698497586045</v>
+        <v>0.1216504346802175</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D284" t="s">
         <v>26</v>
       </c>
       <c r="E284">
-        <v>0.122335299365316</v>
+        <v>0.1215808949272061</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
         <v>28</v>
       </c>
       <c r="E285">
-        <v>0.122118176327954</v>
+        <v>0.1214415094605615</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E286">
-        <v>0.1182006543218475</v>
+        <v>0.1214184868128284</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1174657378299369</v>
+        <v>0.1205505677603924</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E288">
-        <v>0.1173281805854133</v>
+        <v>0.1204543208391276</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E289">
-        <v>0.117085741759829</v>
+        <v>0.1192171744797261</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5388,13 +5388,13 @@
         <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.1170317256018249</v>
+        <v>0.1191520178820456</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,7 +5402,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C291" t="s">
         <v>20</v>
@@ -5411,7 +5411,7 @@
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.116901177257863</v>
+        <v>0.1183492172824123</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5428,7 +5428,7 @@
         <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1155464911784548</v>
+        <v>0.1179637166810946</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5445,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1144049001997386</v>
+        <v>0.1175697029457709</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1140174475186099</v>
+        <v>0.1174595578518841</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1137716829197718</v>
+        <v>0.1171222234286222</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.1135605170333236</v>
+        <v>0.1168989898641422</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.113380721406156</v>
+        <v>0.1161344708076636</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E298">
-        <v>0.1132313632867353</v>
+        <v>0.1155966347924791</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5541,13 +5541,13 @@
         <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E299">
-        <v>0.1130948406615818</v>
+        <v>0.1155011608149739</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D300" t="s">
         <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1129020019639365</v>
+        <v>0.1147677234095444</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D301" t="s">
         <v>26</v>
       </c>
       <c r="E301">
-        <v>0.1127063700926768</v>
+        <v>0.1141186140531104</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E302">
-        <v>0.1123297864251264</v>
+        <v>0.1135605170333236</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1118036962161653</v>
+        <v>0.1128638749419887</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1117475390669186</v>
+        <v>0.1127773504596361</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>0.1117475390669186</v>
+        <v>0.1125929555805565</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1117475390669186</v>
+        <v>0.1121508479075274</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E307">
-        <v>0.111516503468111</v>
+        <v>0.1117215980124348</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C308" t="s">
         <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1115008180796557</v>
+        <v>0.1114326880533453</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1102194973491893</v>
+        <v>0.1113328382154245</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
         <v>21</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1095014863538604</v>
+        <v>0.1104010220129147</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1072500536250404</v>
+        <v>0.1101856782675284</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D312" t="s">
         <v>26</v>
       </c>
       <c r="E312">
-        <v>0.1070168474912784</v>
+        <v>0.1096125326340143</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1069686230642336</v>
+        <v>0.1093586099422482</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1066523069530285</v>
+        <v>0.1093025643011411</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D315" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1064329912978387</v>
+        <v>0.1089914108371227</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5830,13 +5830,13 @@
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1053077788823312</v>
+        <v>0.1086368099569043</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.105125512928265</v>
+        <v>0.1083364230321193</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1045256322938191</v>
+        <v>0.1078622541686696</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D319" t="s">
         <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1032654714495343</v>
+        <v>0.1071808652098715</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1031175938176539</v>
+        <v>0.1062642520784152</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1028949826545307</v>
+        <v>0.1057936909117876</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E322">
-        <v>0.1027730957052257</v>
+        <v>0.1051373980556057</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.1025900987038647</v>
+        <v>0.10497794166785</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.1017242427274562</v>
+        <v>0.1037029272868364</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.1015198742807668</v>
+        <v>0.1033230642967378</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E326">
-        <v>0.1003439301619301</v>
+        <v>0.1022612473544341</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E327">
-        <v>0.09995972530100064</v>
+        <v>0.1014932357319961</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E328">
-        <v>0.09976341209634594</v>
+        <v>0.1012095192751976</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
         <v>28</v>
       </c>
       <c r="E329">
-        <v>0.09929453395963649</v>
+        <v>0.1005662178285837</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6074,7 +6074,7 @@
         <v>26</v>
       </c>
       <c r="E330">
-        <v>0.09837564900682452</v>
+        <v>0.1004547271476593</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E331">
-        <v>0.0967724958983988</v>
+        <v>0.09983431911815487</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D332" t="s">
         <v>28</v>
       </c>
       <c r="E332">
-        <v>0.09671010574365595</v>
+        <v>0.09973771618043301</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C333" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09657483163222659</v>
+        <v>0.0980217304829176</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6136,13 +6136,13 @@
         <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D334" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E334">
-        <v>0.09602960640572872</v>
+        <v>0.09780296791446871</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09502530111803965</v>
+        <v>0.09530939363089494</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C336" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D336" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09500505311063306</v>
+        <v>0.09188425967949916</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C337" t="s">
         <v>23</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.09307662100181457</v>
+        <v>0.09174838908800909</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D338" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09274990701215027</v>
+        <v>0.09141567788759378</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.09152901248216554</v>
+        <v>0.09070495611916715</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09137015714340782</v>
+        <v>0.09047354460247534</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
         <v>26</v>
       </c>
       <c r="E341">
-        <v>0.09018342771286822</v>
+        <v>0.09028753952457673</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.08954722257495408</v>
+        <v>0.08874666994230532</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.08851890387558922</v>
+        <v>0.08782560926129708</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.08767794563164721</v>
+        <v>0.08740918739994981</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.08759447529134651</v>
+        <v>0.08715208395982736</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E346">
-        <v>0.0871549785054417</v>
+        <v>0.08556163189433515</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6357,13 +6357,13 @@
         <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E347">
-        <v>0.08550593424356968</v>
+        <v>0.08489274403168945</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
         <v>28</v>
       </c>
       <c r="E348">
-        <v>0.08523437244177795</v>
+        <v>0.08307700945926037</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.0814860566748134</v>
+        <v>0.08299600796278871</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6408,13 +6408,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
         <v>26</v>
       </c>
       <c r="E350">
-        <v>0.0813780559733966</v>
+        <v>0.08254617067778193</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6425,13 +6425,13 @@
         <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E351">
-        <v>0.0803516624274401</v>
+        <v>0.0810539787058434</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,7 +6439,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
         <v>22</v>
@@ -6448,7 +6448,7 @@
         <v>26</v>
       </c>
       <c r="E352">
-        <v>0.0803372770473194</v>
+        <v>0.0797053169005523</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D353" t="s">
         <v>29</v>
       </c>
       <c r="E353">
-        <v>0.07960505051333379</v>
+        <v>0.07839232563327299</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,7 +6473,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
         <v>23</v>
@@ -6482,7 +6482,7 @@
         <v>28</v>
       </c>
       <c r="E354">
-        <v>0.07924965699561784</v>
+        <v>0.07823633158497321</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C355" t="s">
         <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07751024032718883</v>
+        <v>0.07789832339077364</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,7 +6507,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
         <v>25</v>
@@ -6516,7 +6516,7 @@
         <v>29</v>
       </c>
       <c r="E356">
-        <v>0.07608252354875536</v>
+        <v>0.07763228081005824</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
         <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07350331180703112</v>
+        <v>0.07670500459503059</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C358" t="s">
         <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07293131980598334</v>
+        <v>0.07609079540747654</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07234619313599858</v>
+        <v>0.07526618047053502</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
         <v>22</v>
       </c>
       <c r="D360" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07201450442907745</v>
+        <v>0.07524695448055206</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,7 +6592,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C361" t="s">
         <v>21</v>
@@ -6601,7 +6601,7 @@
         <v>29</v>
       </c>
       <c r="E361">
-        <v>0.07081589911369787</v>
+        <v>0.07483648575334154</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C362" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D362" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.07060029748456931</v>
+        <v>0.07402572146963857</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D363" t="s">
         <v>26</v>
       </c>
       <c r="E363">
-        <v>0.07020513460437428</v>
+        <v>0.07401225349837429</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.07002878095070807</v>
+        <v>0.0730354258935195</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
         <v>26</v>
       </c>
       <c r="E365">
-        <v>0.06999136458639953</v>
+        <v>0.07282213265917456</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D366" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>0.06716342969379976</v>
+        <v>0.07236566713451044</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.06559394369975617</v>
+        <v>0.07151185601715142</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C368" t="s">
         <v>19</v>
@@ -6720,7 +6720,7 @@
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06519792769516453</v>
+        <v>0.06858990937380251</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E369">
-        <v>0.06288406978819512</v>
+        <v>0.06804568233331157</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D370" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E370">
-        <v>0.0627807691868342</v>
+        <v>0.06770809196025909</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D371" t="s">
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.06216264029271968</v>
+        <v>0.06566992064594812</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,7 +6779,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C372" t="s">
         <v>24</v>
@@ -6788,7 +6788,7 @@
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.06089464697489679</v>
+        <v>0.06195617724069318</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E373">
-        <v>0.06023306937031998</v>
+        <v>0.06155673482983051</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C374" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D374" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.06020303637450743</v>
+        <v>0.06135316491068983</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
         <v>22</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.05891537510303418</v>
+        <v>0.0610532263887394</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C376" t="s">
         <v>21</v>
@@ -6856,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.0575302840697153</v>
+        <v>0.06042050954144944</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C377" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.05563896368994435</v>
+        <v>0.05925811973124401</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.05455988983068999</v>
+        <v>0.05163836679658162</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,7 +6898,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C379" t="s">
         <v>24</v>
@@ -6907,7 +6907,7 @@
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.05130735248011577</v>
+        <v>0.05002481167864825</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.05042103142141103</v>
+        <v>0.04191766255733471</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,7 +6932,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C381" t="s">
         <v>22</v>
@@ -6941,7 +6941,7 @@
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.02840939107647052</v>
+        <v>0.03331796795451497</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E382">
-        <v>0.01312859408952841</v>
+        <v>0.0305097607425047</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6975,7 +6975,7 @@
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.01027827622374017</v>
+        <v>0.02865884078037187</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,7 +6983,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C384" t="s">
         <v>22</v>
@@ -6992,7 +6992,7 @@
         <v>26</v>
       </c>
       <c r="E384">
-        <v>0.005540826181332502</v>
+        <v>0.02584627889469996</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7003,13 +7003,13 @@
         <v>14</v>
       </c>
       <c r="C385" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D385" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>0.02549983254665709</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,7 +7017,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C386" t="s">
         <v>25</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C388" t="s">
         <v>21</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,7 +7085,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C390" t="s">
         <v>25</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7122,7 +7122,7 @@
         <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C393" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C395" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C397" t="s">
         <v>21</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C399" t="s">
         <v>21</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
         <v>25</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7292,7 +7292,7 @@
         <v>17</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,7 +7323,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C404" t="s">
         <v>25</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7394,7 +7394,7 @@
         <v>15</v>
       </c>
       <c r="C408" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C410" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C411" t="s">
         <v>22</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7479,7 +7479,7 @@
         <v>6</v>
       </c>
       <c r="C413" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C415" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C416" t="s">
         <v>21</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C417" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
